--- a/Iteration Plan.xlsx
+++ b/Iteration Plan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="127">
   <si>
     <t xml:space="preserve">User Story </t>
   </si>
@@ -133,22 +133,7 @@
     <t>Supervisor can assign category against each RMA request</t>
   </si>
   <si>
-    <t>-Business logic to categorize WO on the basis of number of pieces.
--Code to assign categories to each request, if quantity provided.
-- Link the radio buttons to the 'Category' table
--Enable radio buttons to choose the desired category and link it to the request.
--Add functionality to 'Update' button to reflect the changes in the DB.</t>
-  </si>
-  <si>
     <t>Supervisor can split current RMA request into parts</t>
-  </si>
-  <si>
-    <t>-Logic to assign sub-RMA numbers and associated information with each one of them
--Design screen(Split RMA) layout for splitting the RMA
--Link 'Split RMA' button to direct to 'Split RMA' page.
--Code to genearte new RMA numbers.
--Code to link the associated information with the newly generated RMAs.
--DB connection</t>
   </si>
   <si>
     <t>// High-level plan, as it requires further discussion to implement this section.</t>
@@ -379,14 +364,6 @@
     <t xml:space="preserve">Back:
 Updates Technician WO queue.
 </t>
-  </si>
-  <si>
-    <t>-Link the 'Techname' label to the Technicain DB to view the current assigned Tech.
--Add functionality to the 'Change' button to change/ assign new tech to the WO.
--Add functionality to 'Update' button to reflect the changes in the DB.
--Add button to ' WO queue' page and code it for the assignment of the Technician against a new WO(currently not assigned by the system) 
-- Link the assigned WO to send the notification to the assigned technician.
--DB connection</t>
   </si>
   <si>
     <t xml:space="preserve">Note:
@@ -786,123 +763,6 @@
   <si>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-Design Supervisor Screen Layout</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
--Activate message box, link employee profile
--Link the message box to the tables 'new requests' and ' request on hold'
--</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF33CC"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> link RMA# in both the tables to autofill the availble fields in update section</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
--DB connection</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">-Code to all the inputs fields to accept values manually and  also fetch data(except RMA#) from the DB, wherever available.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF33CC"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-Link each drop-down list item(in 'update status' option) to the status table</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
--Code to prompt a window to update the appropriate reason for status change.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF33CC"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-Code to link the 'open' button to the 'open' screen and back to the Supervisor screen</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
--Code to add functionality to 'open' button to view the complete request information(on ' Open Page') and make the changes.(Similar to Tech Open Page)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF33CC"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-Code to add functionality to ' Update' button to reflect the changes in the DB.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
--DB connection</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <b/>
         <sz val="11"/>
         <color rgb="FFFF33CC"/>
@@ -1178,9 +1038,6 @@
     <t xml:space="preserve">Radio Button </t>
   </si>
   <si>
-    <t xml:space="preserve">Worked on Delegate button , minor issue </t>
-  </si>
-  <si>
     <r>
       <t>-Code to add functionality to ' delegate' button</t>
     </r>
@@ -1286,6 +1143,348 @@
   </si>
   <si>
     <t>Supervisor can Authorize/De-authorize rights to user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worked on Delegate button </t>
+  </si>
+  <si>
+    <r>
+      <t>-Design Supervisor Screen Layout
+-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Activate message box, link employee profile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-Link the message box to the tables 'new requests' and ' request on hold'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- link RMA# in both the tables to autofill the availble fields in update section
+-DB connection</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-Code to all the inputs fields to accept values manually and  also fetch data(except RMA#) from the DB, wherever available.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-Link each drop-down list item(in 'update status' option) to the status table</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-Code to prompt a window to update the appropriate reason for status change.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF33CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-Code to link the 'open' button to the 'open' screen and back to the Supervisor screen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+-Code to add functionality to 'open' button to view the complete request information(on ' Open Page') and make the changes.(Similar to Tech Open Page)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF33CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Code to add functionality to ' Update' button to reflect the changes in the DB.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-DB connection</t>
+    </r>
+  </si>
+  <si>
+    <t>How to come back to the Supervisor Page ?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-Link the 'Techname' label to the Technicain DB to view the current assigned Tech.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-Add functionality to the 'Change' button to change/ assign new tech to the WO.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-Add functionality to 'Update' button to reflect the changes in the DB.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+-Add button to ' WO queue' page and code it for the assignment of the Technician against a new WO(currently not assigned by the system) 
+- Link the assigned WO to send the notification to the assigned technician.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-DB connection</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-Business logic to categorize WO on the basis of number of pieces.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-Code to assign categories to each request, if quantity provided.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- Link the radio buttons to the 'Category' table
+-Enable radio buttons to choose the desired category and link it to the request.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-Add functionality to 'Update' button to reflect the changes in the DB.</t>
+    </r>
+  </si>
+  <si>
+    <t>-How to run a SQL Server Script in Visual to auto fill the Category field based on the quantity?
+-Enable radio buttons</t>
+  </si>
+  <si>
+    <r>
+      <t>-Logic to assign sub-RMA numbers and associated information with each one of them
+-Design screen(Split RMA) layout for splitting the RMA
+-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Link 'Split RMA' button to direct to 'Split RMA' page.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+-Code to genearte new RMA numbers.
+-Code to link the associated information with the newly generated RMAs.
+-DB connection</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1526,6 +1725,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1558,9 +1760,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1863,8 +2062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1881,7 +2080,7 @@
     <row r="1" spans="1:7" ht="60">
       <c r="A1" s="2"/>
       <c r="B1" s="7" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -1897,15 +2096,15 @@
       <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="13"/>
+      <c r="E2" s="14"/>
       <c r="F2" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="109.5" customHeight="1">
@@ -1916,19 +2115,19 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>101</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="150">
@@ -1936,72 +2135,72 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="F4" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="65.25" customHeight="1">
+      <c r="A5" s="15">
+        <v>3</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:7" ht="67.5" customHeight="1">
+      <c r="A6" s="16"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="65.25" customHeight="1">
-      <c r="A5" s="14">
-        <v>3</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7" ht="46.5" customHeight="1">
+      <c r="A7" s="17"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="G5" s="8"/>
-    </row>
-    <row r="6" spans="1:7" ht="67.5" customHeight="1">
-      <c r="A6" s="15"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" spans="1:7" ht="46.5" customHeight="1">
-      <c r="A7" s="16"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="G7" s="8"/>
     </row>
@@ -2013,17 +2212,17 @@
         <v>9</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F8" s="4"/>
-      <c r="G8" s="23" t="s">
-        <v>120</v>
+      <c r="G8" s="12" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="150">
@@ -2037,10 +2236,10 @@
         <v>11</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="8"/>
@@ -2053,17 +2252,17 @@
         <v>12</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="75">
@@ -2074,13 +2273,13 @@
         <v>18</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="8"/>
@@ -2093,13 +2292,13 @@
         <v>13</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="8"/>
@@ -2116,7 +2315,7 @@
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="8"/>
@@ -2129,13 +2328,13 @@
         <v>16</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="8"/>
@@ -2151,10 +2350,10 @@
         <v>19</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="8"/>
@@ -2166,14 +2365,14 @@
       <c r="B16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>112</v>
+      <c r="C16" s="9" t="s">
+        <v>120</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="8"/>
@@ -2183,16 +2382,16 @@
         <v>13</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>113</v>
+        <v>30</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>121</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="8"/>
@@ -2202,16 +2401,18 @@
         <v>14</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F18" s="4"/>
+        <v>72</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>122</v>
+      </c>
       <c r="G18" s="8"/>
     </row>
     <row r="19" spans="1:7" ht="114" customHeight="1">
@@ -2225,10 +2426,10 @@
         <v>26</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="8"/>
@@ -2241,13 +2442,13 @@
         <v>25</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="8"/>
@@ -2259,16 +2460,18 @@
       <c r="B21" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>28</v>
+      <c r="C21" s="9" t="s">
+        <v>124</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F21" s="4"/>
+        <v>79</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="G21" s="8"/>
     </row>
     <row r="22" spans="1:7" ht="120">
@@ -2276,19 +2479,19 @@
         <v>18</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F22" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="G22" s="8"/>
     </row>
@@ -2297,15 +2500,15 @@
         <v>19</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="1"/>
       <c r="E23" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G23" s="8"/>
     </row>
@@ -2314,16 +2517,16 @@
         <v>20</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="8"/>
@@ -2333,19 +2536,19 @@
         <v>21</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G25" s="8"/>
     </row>
@@ -2354,16 +2557,16 @@
         <v>22</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="8"/>
@@ -2373,16 +2576,16 @@
         <v>23</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="8"/>
@@ -2399,7 +2602,7 @@
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="8"/>
@@ -2416,7 +2619,7 @@
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="8"/>
@@ -2429,11 +2632,11 @@
         <v>5</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="8"/>
@@ -2443,14 +2646,14 @@
         <v>27</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="8"/>
@@ -2488,10 +2691,10 @@
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="13"/>
+      <c r="D1" s="14"/>
     </row>
     <row r="2" spans="1:4" ht="60">
       <c r="A2" s="6">
@@ -2501,10 +2704,10 @@
         <v>2</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="45">
@@ -2512,13 +2715,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="90">
@@ -2526,13 +2729,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="75">
@@ -2540,13 +2743,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="60">
@@ -2554,13 +2757,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="45">
@@ -2571,10 +2774,10 @@
         <v>9</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="90">
@@ -2585,10 +2788,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="135">
@@ -2599,10 +2802,10 @@
         <v>12</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="60">
@@ -2613,10 +2816,10 @@
         <v>18</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="75">
@@ -2627,10 +2830,10 @@
         <v>13</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="60">
@@ -2642,7 +2845,7 @@
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="45">
@@ -2653,10 +2856,10 @@
         <v>16</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="60">
@@ -2667,10 +2870,10 @@
         <v>17</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="60">
@@ -2681,10 +2884,10 @@
         <v>20</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="60">
@@ -2692,13 +2895,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="60">
@@ -2706,11 +2909,11 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="90">
@@ -2721,10 +2924,10 @@
         <v>21</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="75">
@@ -2735,10 +2938,10 @@
         <v>25</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="90">
@@ -2749,10 +2952,10 @@
         <v>27</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="90">
@@ -2760,13 +2963,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="105">
@@ -2774,11 +2977,11 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="60">
@@ -2786,13 +2989,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="60">
@@ -2803,10 +3006,10 @@
         <v>22</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="75">
@@ -2817,10 +3020,10 @@
         <v>23</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="75">
@@ -2828,13 +3031,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="60">
@@ -2846,7 +3049,7 @@
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="105">
@@ -2858,7 +3061,7 @@
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="45">
@@ -2870,7 +3073,7 @@
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="75">
@@ -2878,11 +3081,11 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/Iteration Plan.xlsx
+++ b/Iteration Plan.xlsx
@@ -9,14 +9,14 @@
   <sheets>
     <sheet name="Iteration Plan" sheetId="1" r:id="rId1"/>
     <sheet name="UserStories" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="WireFrame" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="134">
   <si>
     <t xml:space="preserve">User Story </t>
   </si>
@@ -136,9 +136,6 @@
     <t>Supervisor can split current RMA request into parts</t>
   </si>
   <si>
-    <t>// High-level plan, as it requires further discussion to implement this section.</t>
-  </si>
-  <si>
     <t>Supervisor can edit all the active requests</t>
   </si>
   <si>
@@ -651,17 +648,14 @@
   </si>
   <si>
     <r>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF33CC"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Design Layout for the Table showing Technician WO details</t>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-Layout for the 'Open' screen</t>
     </r>
     <r>
       <rPr>
@@ -672,23 +666,82 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-Code to link the 'open' button to this screen and back to the Technician screen</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-Add items to drop down list(Status accessible to receiving staff)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-Code to add functionality to 'update' button to update the database</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+-Code to record/track dates for ' Wait' and 'Received' status
+-Code to send out email notifications,wherever applicable, based on dates criteria
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-DB connection to RMA table for above</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-Connect CSM DB to fetch all the RMA#
 -</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF33CC"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DB connection to view current assigned request
-- link RMA# in the WO table to autofill the availble fields in update section</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>-Link each drop-down list item(in 'update status' section) to the status table</t>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design layout for the Receiving Staff screen</t>
     </r>
     <r>
       <rPr>
@@ -699,17 +752,126 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">-Code to link the receiving screen with CSM to produce list of all incoming RMAs(Open RMAs)
+-DB connection to produce list of RMAs received </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>and on wait</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. 
+-Activate Refresh button to update RMA lists(Open and Received</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Waiting List</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">-Enable radio Buttons, connect to DB
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-Design Technician Screen Layout</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+-Activate message box, link employee profiles
+-Link the message box to the table 'new requests'
+-DB connection
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>link RMA# in the 'new requetss' table to autofill the availble fields in update section</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-Code to add functionality to ' delegate' button</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(both on Prceed Window &amp; update screen) and further link it to 'update message' prompt window
 -</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF33CC"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Code to add functionality to 'update' button to update the database</t>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Create DB for various information sections like resolution,description etc</t>
     </r>
     <r>
       <rPr>
@@ -720,14 +882,350 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-DB connection to the Status update section with the prompt window.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+-Add functionality to automatically record the dates when user enters information in status update section.
+-Code to send notification to Supervisor, asking for approval/putting the request on 'hold'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-Link the Combo Box to the Help Desk Staff</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Add functionality to 'Authorize ' button to link authorized user and allow them access to Update Details(Same as Supervisor) 
+-Code to Authorize users to perform updates tasks(same as Supervisor)  
+-Functionality to remove access against authorized user</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Supervisor can Authorize/De-authorize rights to user</t>
+  </si>
+  <si>
+    <r>
+      <t>-Design Supervisor Screen Layout
+-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Activate message box, link employee profile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-Link the message box to the tables 'new requests' and ' request on hold'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- link RMA# in both the tables to autofill the availble fields in update section
+-DB connection</t>
+    </r>
+  </si>
+  <si>
+    <t>How to come back to the Supervisor Page ?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-Link the 'Techname' label to the Technicain DB to view the current assigned Tech.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-Add functionality to the 'Change' button to change/ assign new tech to the WO.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-Add functionality to 'Update' button to reflect the changes in the DB.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+-Add button to ' WO queue' page and code it for the assignment of the Technician against a new WO(currently not assigned by the system) 
+- Link the assigned WO to send the notification to the assigned technician.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-DB connection</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-Business logic to categorize WO on the basis of number of pieces.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-Code to assign categories to each request, if quantity provided.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- Link the radio buttons to the 'Category' table
+-Enable radio buttons to choose the desired category and link it to the request.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-Add functionality to 'Update' button to reflect the changes in the DB.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-Logic to assign sub-RMA numbers and associated information with each one of them
+-Design screen(Split RMA) layout for splitting the RMA
+-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Link 'Split RMA' button to direct to 'Split RMA' page.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+-Code to genearte new RMA numbers.
+-Code to link the associated information with the newly generated RMAs.
+-DB connection</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Unable to enable Radio buttons: Fetch the data from DB and autofill the radio buttons</t>
+    </r>
+  </si>
+  <si>
+    <t>-Link each drop-down list item(in 'update status' section) to the status table
+-Code to add functionality to 'update' button to update the database
 -Code to promt a window to enter reason as soon as the status is changed to 'Hold'
 -DB connection to the Status update section with the prompt window.
 -Code to record/track dates for 'Hold' status
 -Code to send out email notifications
 -DB connection to status table and RMA request for above</t>
-    </r>
-  </si>
-  <si>
+  </si>
+  <si>
+    <r>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design Layout for the Table showing Technician WO details
+-DB connection to view current assigned request
+- link RMA# in the WO table to autofill the availble fields in update section</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-Code to all the inputs fields to accept values manually and  also fetch data(except RMA#) from the DB, wherever available.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -736,7 +1234,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>-Layout for the 'Open' screen</t>
+      <t>-Link each drop-down list item(in 'update status' option) to the status table</t>
     </r>
     <r>
       <rPr>
@@ -752,12 +1250,66 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-Code to prompt a window to update the appropriate reason for status change.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+-Code to link the 'open' button to the 'open' screen and back to the Supervisor screen
+-Code to add functionality to 'open' button to view the complete request information(on ' Open Page') and make the changes.(Similar to Tech Open Page)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF33CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color rgb="FF00B0F0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>-Code to link the 'open' button to this screen and back to the Technician screen</t>
+      <t>Code to add functionality to ' Update' button to reflect the changes in the DB.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-DB connection</t>
     </r>
   </si>
   <si>
@@ -765,23 +1317,55 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color rgb="FFFF33CC"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PINK:</t>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RED:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Task removed
+</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BLUE:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t xml:space="preserve"> Task completed                                                                                                                                                                                                                                                            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GREEN:</t>
     </r>
     <r>
       <rPr>
@@ -791,19 +1375,19 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Next task that can be taken up </t>
+      <t xml:space="preserve"> New task introduced</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <color rgb="FF7030A0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-RED:</t>
+PURPLE and BOLD: </t>
     </r>
     <r>
       <rPr>
@@ -813,19 +1397,28 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Task removed
-</t>
+      <t>Tried but unsuccessful</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> -</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>BLUE:</t>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Radio Buttons to be enabled on selecting a record from the list box : Fetch the data from DB and autofill the radio buttons</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-</t>
     </r>
     <r>
       <rPr>
@@ -835,282 +1428,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Task completed                                                                                                                                                                                                                                                            </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>GREEN:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> New task introduced</t>
-    </r>
-  </si>
-  <si>
-    <t>-Done With Dummy Data for RMA Table</t>
-  </si>
-  <si>
-    <r>
-      <t>-Add items to drop down list(Status accessible to receiving staff)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-Code to add functionality to 'update' button to update the database</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
--Code to record/track dates for ' Wait' and 'Received' status
--Code to send out email notifications,wherever applicable, based on dates criteria
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-DB connection to RMA table for above</t>
-    </r>
-  </si>
-  <si>
-    <t>Enable Radio buttons</t>
-  </si>
-  <si>
-    <r>
-      <t>-Connect CSM DB to fetch all the RMA#
--</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Design layout for the Receiving Staff screen</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">-Code to link the receiving screen with CSM to produce list of all incoming RMAs(Open RMAs)
--DB connection to produce list of RMAs received </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>and on wait</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. 
--Activate Refresh button to update RMA lists(Open and Received</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, Waiting List</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">-Enable radio Buttons, connect to DB
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>-Design Technician Screen Layout</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
--Activate message box, link employee profiles
--Link the message box to the table 'new requests'
--DB connection
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>link RMA# in the 'new requetss' table to autofill the availble fields in update section</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Radio Button </t>
-  </si>
-  <si>
-    <r>
-      <t>-Code to add functionality to ' delegate' button</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(both on Prceed Window &amp; update screen) and further link it to 'update message' prompt window
--</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Create DB for various information sections like resolution,description etc</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-DB connection to the Status update section with the prompt window.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
--Add functionality to automatically record the dates when user enters information in status update section.
--Code to send notification to Supervisor, asking for approval/putting the request on 'hold'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-Link the Combo Box to the Help Desk Staff</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
+      <t>Done With Dummy Data for RMA Table</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -1120,14 +1443,25 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Add functionality to 'Authorize ' button to link authorized user and allow them access to Update Details(Same as Supervisor) 
--Code to Authorize users to perform updates tasks(same as Supervisor)  
--Functionality to remove access against authorized user</t>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Radio Buttons to be enabled on selecting a record from the list box : Fetch the data from DB and autofill the radio buttons</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+-</t>
     </r>
     <r>
       <rPr>
@@ -1137,353 +1471,82 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">.
-</t>
-    </r>
-  </si>
-  <si>
-    <t>Supervisor can Authorize/De-authorize rights to user</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Worked on Delegate button </t>
-  </si>
-  <si>
-    <r>
-      <t>-Design Supervisor Screen Layout
--</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Activate message box, link employee profile</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-Link the message box to the tables 'new requests' and ' request on hold'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>- link RMA# in both the tables to autofill the availble fields in update section
--DB connection</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>-Code to all the inputs fields to accept values manually and  also fetch data(except RMA#) from the DB, wherever available.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-Link each drop-down list item(in 'update status' option) to the status table</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-Code to prompt a window to update the appropriate reason for status change.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF33CC"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-Code to link the 'open' button to the 'open' screen and back to the Supervisor screen</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
--Code to add functionality to 'open' button to view the complete request information(on ' Open Page') and make the changes.(Similar to Tech Open Page)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF33CC"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
+      <t>Functionality to be added to 'View History' Button</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">-Worked on Delegate button(only on Update Panel) 
+-Refer designed Wireframe to work with Proceed Window and Delegate Button. 
+-Rest is pending
+ </t>
+  </si>
+  <si>
+    <t>'- Pending:Open button to direct the Supervisor to the same Open screen (as that available for Technician) and back to the supervisor screen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Need to work on the WO queue and duplicate the technician assignment functionality.
+</t>
+  </si>
+  <si>
+    <r>
       <t>-</t>
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Code to add functionality to ' Update' button to reflect the changes in the DB.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-DB connection</t>
-    </r>
-  </si>
-  <si>
-    <t>How to come back to the Supervisor Page ?</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-Link the 'Techname' label to the Technicain DB to view the current assigned Tech.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-Add functionality to the 'Change' button to change/ assign new tech to the WO.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-Add functionality to 'Update' button to reflect the changes in the DB.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
--Add button to ' WO queue' page and code it for the assignment of the Technician against a new WO(currently not assigned by the system) 
-- Link the assigned WO to send the notification to the assigned technician.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-DB connection</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>-Business logic to categorize WO on the basis of number of pieces.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-Code to assign categories to each request, if quantity provided.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- Link the radio buttons to the 'Category' table
--Enable radio buttons to choose the desired category and link it to the request.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-Add functionality to 'Update' button to reflect the changes in the DB.</t>
-    </r>
-  </si>
-  <si>
-    <t>-How to run a SQL Server Script in Visual to auto fill the Category field based on the quantity?
--Enable radio buttons</t>
-  </si>
-  <si>
-    <r>
-      <t>-Logic to assign sub-RMA numbers and associated information with each one of them
--Design screen(Split RMA) layout for splitting the RMA
--</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Link 'Split RMA' button to direct to 'Split RMA' page.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
--Code to genearte new RMA numbers.
--Code to link the associated information with the newly generated RMAs.
--DB connection</t>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>How to run a SQL Server Script in Visual to auto fill the Category field based on the quantity?
+-Enable radio buttons, on slecting an Item on listbox.</t>
+    </r>
+  </si>
+  <si>
+    <t>-High-level plan, as it requires further discussion to implement this section.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Worked around with generating the reports, further need to work with the formating and customised generation of the report based on ceratin parameters(Date, client name, Status)</t>
+  </si>
+  <si>
+    <t>Not sure how to implement Authorize button functionality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-Update button enable successfully.
+-Pending: Logic to record dates, in order to send out the email notifications to concerned person. </t>
+  </si>
+  <si>
+    <t>RMA Software- Wireframe</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">-Functionality to add,delete and edit employee information completed.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-Need to work on:
+1. Allow to exit the 'add emp' screen without necessarily entering the details/adding a new employee record.
+2. Enhance the implemented validations(if required)</t>
     </r>
   </si>
 </sst>
@@ -1491,7 +1554,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1574,9 +1637,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFF33CC"/>
+      <color rgb="FF7030A0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1692,7 +1769,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1719,14 +1796,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1761,6 +1832,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1769,6 +1861,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFFFCC"/>
       <color rgb="FFFF33CC"/>
     </mruColors>
   </colors>
@@ -2062,8 +2155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2071,16 +2164,16 @@
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="52.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="52.7109375" customWidth="1"/>
-    <col min="4" max="4" width="28.42578125" customWidth="1"/>
-    <col min="5" max="5" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="28.42578125" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="30.85546875" customWidth="1"/>
-    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="7" max="7" width="45.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="60">
       <c r="A1" s="2"/>
       <c r="B1" s="7" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -2096,15 +2189,15 @@
       <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="14"/>
+      <c r="E2" s="12"/>
       <c r="F2" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>99</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="109.5" customHeight="1">
@@ -2115,19 +2208,19 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>41</v>
-      </c>
       <c r="F3" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="150">
@@ -2135,74 +2228,76 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="65.25" customHeight="1">
+      <c r="A5" s="13">
+        <v>3</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="65.25" customHeight="1">
-      <c r="A5" s="15">
-        <v>3</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="G5" s="22" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="67.5" customHeight="1">
+      <c r="A6" s="14"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="8"/>
-    </row>
-    <row r="6" spans="1:7" ht="67.5" customHeight="1">
-      <c r="A6" s="16"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="4" t="s">
+      <c r="G6" s="25"/>
+    </row>
+    <row r="7" spans="1:7" ht="46.5" customHeight="1">
+      <c r="A7" s="15"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" spans="1:7" ht="46.5" customHeight="1">
-      <c r="A7" s="17"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" s="8"/>
+      <c r="G7" s="26"/>
     </row>
     <row r="8" spans="1:7" ht="90">
       <c r="A8" s="6">
@@ -2212,17 +2307,17 @@
         <v>9</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>55</v>
-      </c>
       <c r="F8" s="4"/>
-      <c r="G8" s="12" t="s">
-        <v>115</v>
+      <c r="G8" s="24" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="150">
@@ -2236,10 +2331,10 @@
         <v>11</v>
       </c>
       <c r="D9" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="8"/>
@@ -2252,17 +2347,17 @@
         <v>12</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>59</v>
-      </c>
       <c r="F10" s="4"/>
-      <c r="G10" s="11" t="s">
-        <v>119</v>
+      <c r="G10" s="10" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="75">
@@ -2272,14 +2367,14 @@
       <c r="B11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>106</v>
+      <c r="C11" s="23" t="s">
+        <v>119</v>
       </c>
       <c r="D11" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="8"/>
@@ -2291,14 +2386,14 @@
       <c r="B12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>107</v>
+      <c r="C12" s="23" t="s">
+        <v>118</v>
       </c>
       <c r="D12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="8"/>
@@ -2315,7 +2410,7 @@
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="8"/>
@@ -2328,13 +2423,13 @@
         <v>16</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="8"/>
@@ -2350,10 +2445,10 @@
         <v>19</v>
       </c>
       <c r="D15" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="8"/>
@@ -2366,13 +2461,13 @@
         <v>20</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="8"/>
@@ -2382,36 +2477,38 @@
         <v>13</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D17" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>71</v>
-      </c>
       <c r="F17" s="4"/>
-      <c r="G17" s="8"/>
+      <c r="G17" s="24" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="18" spans="1:7" ht="60">
       <c r="A18" s="6">
         <v>14</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>31</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>32</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="G18" s="8"/>
     </row>
@@ -2426,10 +2523,10 @@
         <v>26</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="8"/>
@@ -2442,16 +2539,18 @@
         <v>25</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D20" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>77</v>
-      </c>
       <c r="F20" s="4"/>
-      <c r="G20" s="8"/>
+      <c r="G20" s="10" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="21" spans="1:7" ht="135">
       <c r="A21" s="6">
@@ -2461,18 +2560,18 @@
         <v>27</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="D21" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G21" s="8"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="10" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="22" spans="1:7" ht="120">
       <c r="A22" s="6">
@@ -2482,33 +2581,33 @@
         <v>28</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="D22" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G22" s="8"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="10" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="23" spans="1:7" ht="105">
       <c r="A23" s="6">
         <v>19</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="1"/>
       <c r="E23" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G23" s="8"/>
     </row>
@@ -2517,75 +2616,81 @@
         <v>20</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="D24" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E24" s="4" t="s">
-        <v>83</v>
-      </c>
       <c r="F24" s="4"/>
-      <c r="G24" s="8"/>
+      <c r="G24" s="27" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="25" spans="1:7" ht="194.25" customHeight="1">
       <c r="A25" s="6">
         <v>21</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G25" s="8"/>
+      <c r="G25" s="10" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="26" spans="1:7" ht="120">
       <c r="A26" s="6">
         <v>22</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D26" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E26" s="4" t="s">
-        <v>86</v>
-      </c>
       <c r="F26" s="4"/>
-      <c r="G26" s="8"/>
+      <c r="G26" s="28" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="27" spans="1:7" ht="66" customHeight="1">
       <c r="A27" s="6">
         <v>23</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="D27" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>88</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="8"/>
@@ -2602,7 +2707,7 @@
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="8"/>
@@ -2619,7 +2724,7 @@
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="8"/>
@@ -2632,11 +2737,11 @@
         <v>5</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="8"/>
@@ -2646,24 +2751,25 @@
         <v>27</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="C5:C7"/>
+    <mergeCell ref="G5:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2691,10 +2797,10 @@
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="14"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4" ht="60">
       <c r="A2" s="6">
@@ -2704,10 +2810,10 @@
         <v>2</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="45">
@@ -2715,13 +2821,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="90">
@@ -2729,13 +2835,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="75">
@@ -2743,13 +2849,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="60">
@@ -2757,13 +2863,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="45">
@@ -2774,10 +2880,10 @@
         <v>9</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="90">
@@ -2788,10 +2894,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="135">
@@ -2802,10 +2908,10 @@
         <v>12</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="60">
@@ -2816,10 +2922,10 @@
         <v>18</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="75">
@@ -2830,10 +2936,10 @@
         <v>13</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="60">
@@ -2845,7 +2951,7 @@
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="45">
@@ -2856,10 +2962,10 @@
         <v>16</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="60">
@@ -2870,10 +2976,10 @@
         <v>17</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="60">
@@ -2884,10 +2990,10 @@
         <v>20</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="60">
@@ -2895,13 +3001,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="60">
@@ -2909,11 +3015,11 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="90">
@@ -2924,10 +3030,10 @@
         <v>21</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="75">
@@ -2938,10 +3044,10 @@
         <v>25</v>
       </c>
       <c r="C19" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="90">
@@ -2952,10 +3058,10 @@
         <v>27</v>
       </c>
       <c r="C20" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="90">
@@ -2966,10 +3072,10 @@
         <v>28</v>
       </c>
       <c r="C21" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="105">
@@ -2977,11 +3083,11 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="60">
@@ -2989,13 +3095,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C23" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="60">
@@ -3006,10 +3112,10 @@
         <v>22</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="75">
@@ -3020,10 +3126,10 @@
         <v>23</v>
       </c>
       <c r="C25" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="75">
@@ -3031,13 +3137,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C26" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="60">
@@ -3049,7 +3155,7 @@
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="105">
@@ -3061,7 +3167,7 @@
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="45">
@@ -3073,7 +3179,7 @@
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="75">
@@ -3081,11 +3187,11 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -3098,12 +3204,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="8" spans="6:6">
+      <c r="F8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <oleObjects>
+    <oleObject progId="AcroExch.Document.7" dvAspect="DVASPECT_ICON" shapeId="2050" r:id="rId3"/>
+  </oleObjects>
 </worksheet>
 </file>
--- a/Iteration Plan.xlsx
+++ b/Iteration Plan.xlsx
@@ -10,13 +10,14 @@
     <sheet name="Iteration Plan" sheetId="1" r:id="rId1"/>
     <sheet name="UserStories" sheetId="2" r:id="rId2"/>
     <sheet name="WireFrame" sheetId="3" r:id="rId3"/>
+    <sheet name="Issues" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="136">
   <si>
     <t xml:space="preserve">User Story </t>
   </si>
@@ -566,95 +567,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>-Design Form to add employee information
--</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Add functionality to 'Add button' to save new employee information in the db.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">-Connect DB to EmployeeID and Employee Name
--Code to display information by using 'View Info' button, based on the search performed for the Employee.
--Code to delete Employee information, by using 'Delete Tech'  button, based on the search performed 
--Code to edit the Employee information, by using ' Edit Info' button, based on the serach performed </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
--</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Validations</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> on the fields, while adding/updating new employee record</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
--Auto Generated Employee ID</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>-Layout for the 'Open' screen</t>
     </r>
     <r>
@@ -726,97 +638,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>-DB connection to RMA table for above</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>-Connect CSM DB to fetch all the RMA#
--</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Design layout for the Receiving Staff screen</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">-Code to link the receiving screen with CSM to produce list of all incoming RMAs(Open RMAs)
--DB connection to produce list of RMAs received </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>and on wait</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. 
--Activate Refresh button to update RMA lists(Open and Received</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, Waiting List</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">-Enable radio Buttons, connect to DB
-</t>
     </r>
   </si>
   <si>
@@ -1170,46 +991,258 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">- </t>
+    <t xml:space="preserve"> Worked around with generating the reports, further need to work with the formating and customised generation of the report based on ceratin parameters(Date, client name, Status)</t>
+  </si>
+  <si>
+    <t>Not sure how to implement Authorize button functionality</t>
+  </si>
+  <si>
+    <t>RMA Software- Wireframe</t>
+  </si>
+  <si>
+    <t>-Enable/Disable View History Button, as soon as value is inputted in the text field.(Enable only if the record ‘s Status is closed, else disable)</t>
+  </si>
+  <si>
+    <r>
+      <t>-Connect CSM DB to fetch all the RMA#
+-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Design layout for the Receiving Staff screen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">-Code to link the receiving screen with CSM to produce list of all incoming RMAs(Open RMAs)
+-DB connection to produce list of RMAs received </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>and on wait</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. 
+-Activate Refresh button to update RMA lists(Open and Received</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Waiting List</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)
+-Enable radio Buttons, connect to DB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>-Only the mentioned tasks left</t>
+  </si>
+  <si>
+    <r>
+      <t>-</t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Unable to enable Radio buttons: Fetch the data from DB and autofill the radio buttons</t>
-    </r>
-  </si>
-  <si>
-    <t>-Link each drop-down list item(in 'update status' section) to the status table
--Code to add functionality to 'update' button to update the database
--Code to promt a window to enter reason as soon as the status is changed to 'Hold'
--DB connection to the Status update section with the prompt window.
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">How to run a SQL Server Script in Visual to auto fill the Category field based on the quantity?
+</t>
+    </r>
+  </si>
+  <si>
+    <t>-High-level plan so far!!! Requires further discussion to implement this section.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-Design Form to add employee information
+-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Add functionality to 'Add button' to save new employee information in the db.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">-Connect DB to EmployeeID and Employee Name
+-Code to display information by using 'View Info' button, based on the search performed for the Employee.
+-Code to delete Employee information, by using 'Delete Tech'  button, based on the search performed 
+-Code to edit the Employee information, by using ' Edit Info' button, based on the serach performed </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Validations on the fields, while adding/updating new employee record</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+-Auto Generated Employee ID</t>
+    </r>
+  </si>
+  <si>
+    <t>Done!</t>
+  </si>
+  <si>
+    <r>
+      <t>-Link each drop-down list item(in 'update status' section) to the status table
+-Code to add functionality to 'update' button to update the database</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF33CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Code to promt a window to enter reason as soon as the status is changed to 'Hold'
+-DB connection to the Status update section with the prompt window.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 -Code to record/track dates for 'Hold' status
 -Code to send out email notifications
 -DB connection to status table and RMA request for above</t>
-  </si>
-  <si>
-    <r>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Design Layout for the Table showing Technician WO details
+    </r>
+  </si>
+  <si>
+    <t>-Design Layout for the Table showing Technician WO details
 -DB connection to view current assigned request
 - link RMA# in the WO table to autofill the availble fields in update section</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1266,8 +1299,28 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
--Code to link the 'open' button to the 'open' screen and back to the Supervisor screen
--Code to add functionality to 'open' button to view the complete request information(on ' Open Page') and make the changes.(Similar to Tech Open Page)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-Code to link the 'open' button to the 'open' screen and back to the Supervisor screen
+-Code to add functionality to 'open' button to view the complete request information(on ' Open Page') and make the changes.(Similar to Tech Open Page)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -1317,6 +1370,180 @@
       <rPr>
         <b/>
         <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'- Issue: 'Go Back' button(on Tech_open screen) doesnot not work for more than once!!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-Done!! Cover Open Screen in User story 11</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Done</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>With Dummy Data for RMA Table</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-Update button enabled successfully.
+-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Pending: Logic to record dates, in order to send out the email notifications to concerned person. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">-Worked on Delegate button(only on Update Panel) 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Refer designed Wireframe to work with Proceed Window and Delegate Button. 
+-To reach to Proceed window, automated request assignment is needed --&gt; how ?
+ </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Done!</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Cover rest in User Story 11</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Need to work on the WO queue(How??)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">and duplicate the technician assignment functionality.
+</t>
+    </r>
+  </si>
+  <si>
+    <t>-Done!
+- Issue: 'Go Back' button on Search Screen</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -1354,7 +1581,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Task completed                                                                                                                                                                                                                                                            </t>
+      <t xml:space="preserve"> Task completed                                                                                                                                                                                                                                                            
+</t>
     </r>
     <r>
       <rPr>
@@ -1397,156 +1625,50 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Tried but unsuccessful</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> -</t>
+      <t xml:space="preserve">Needs attention
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF33CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PINK:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Next Task that can be taken up(Tanmeet)
+Cell Highlighted in </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Radio Buttons to be enabled on selecting a record from the list box : Fetch the data from DB and autofill the radio buttons</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Done With Dummy Data for RMA Table</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Radio Buttons to be enabled on selecting a record from the list box : Fetch the data from DB and autofill the radio buttons</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
--</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Functionality to be added to 'View History' Button</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">-Worked on Delegate button(only on Update Panel) 
--Refer designed Wireframe to work with Proceed Window and Delegate Button. 
--Rest is pending
- </t>
-  </si>
-  <si>
-    <t>'- Pending:Open button to direct the Supervisor to the same Open screen (as that available for Technician) and back to the supervisor screen.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Need to work on the WO queue and duplicate the technician assignment functionality.
-</t>
-  </si>
-  <si>
-    <r>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>How to run a SQL Server Script in Visual to auto fill the Category field based on the quantity?
--Enable radio buttons, on slecting an Item on listbox.</t>
-    </r>
-  </si>
-  <si>
-    <t>-High-level plan, as it requires further discussion to implement this section.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Worked around with generating the reports, further need to work with the formating and customised generation of the report based on ceratin parameters(Date, client name, Status)</t>
-  </si>
-  <si>
-    <t>Not sure how to implement Authorize button functionality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-Update button enable successfully.
--Pending: Logic to record dates, in order to send out the email notifications to concerned person. </t>
-  </si>
-  <si>
-    <t>RMA Software- Wireframe</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">-Functionality to add,delete and edit employee information completed.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-Need to work on:
-1. Allow to exit the 'add emp' screen without necessarily entering the details/adding a new employee record.
-2. Enhance the implemented validations(if required)</t>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Yellow:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Completed/Near completion </t>
     </r>
   </si>
 </sst>
@@ -1638,13 +1760,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF7030A0"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1658,8 +1773,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1675,6 +1798,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1769,7 +1904,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1787,9 +1922,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1797,6 +1929,18 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1835,23 +1979,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1861,8 +2017,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFFF00"/>
+      <color rgb="FFFF33CC"/>
       <color rgb="FFFFFFCC"/>
-      <color rgb="FFFF33CC"/>
     </mruColors>
   </colors>
 </styleSheet>
@@ -2155,8 +2312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2170,16 +2327,16 @@
     <col min="7" max="7" width="45.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="60">
-      <c r="A1" s="2"/>
-      <c r="B1" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+    <row r="1" spans="1:7" ht="108.75" customHeight="1">
+      <c r="A1" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
     </row>
     <row r="2" spans="1:7" ht="15.75">
       <c r="A2" s="5"/>
@@ -2189,10 +2346,10 @@
       <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="12"/>
+      <c r="E2" s="15"/>
       <c r="F2" s="5" t="s">
         <v>98</v>
       </c>
@@ -2219,7 +2376,7 @@
       <c r="F3" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="28" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2231,7 +2388,7 @@
         <v>41</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>42</v>
@@ -2239,22 +2396,20 @@
       <c r="E4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>123</v>
+      <c r="F4" s="1"/>
+      <c r="G4" s="29" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="65.25" customHeight="1">
-      <c r="A5" s="13">
+      <c r="A5" s="16">
         <v>3</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="19" t="s">
-        <v>106</v>
+      <c r="C5" s="22" t="s">
+        <v>105</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>52</v>
@@ -2265,14 +2420,14 @@
       <c r="F5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="22" t="s">
-        <v>131</v>
+      <c r="G5" s="25" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="67.5" customHeight="1">
-      <c r="A6" s="14"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="20"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="23"/>
       <c r="D6" s="4" t="s">
         <v>47</v>
       </c>
@@ -2282,12 +2437,12 @@
       <c r="F6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="25"/>
+      <c r="G6" s="26"/>
     </row>
     <row r="7" spans="1:7" ht="46.5" customHeight="1">
-      <c r="A7" s="15"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="21"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="24"/>
       <c r="D7" s="4" t="s">
         <v>48</v>
       </c>
@@ -2297,7 +2452,7 @@
       <c r="F7" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="26"/>
+      <c r="G7" s="27"/>
     </row>
     <row r="8" spans="1:7" ht="90">
       <c r="A8" s="6">
@@ -2306,8 +2461,8 @@
       <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>108</v>
+      <c r="C8" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>53</v>
@@ -2316,8 +2471,8 @@
         <v>54</v>
       </c>
       <c r="F8" s="4"/>
-      <c r="G8" s="24" t="s">
-        <v>122</v>
+      <c r="G8" s="13" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="150">
@@ -2337,7 +2492,7 @@
         <v>56</v>
       </c>
       <c r="F9" s="4"/>
-      <c r="G9" s="8"/>
+      <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:7" ht="165">
       <c r="A10" s="6">
@@ -2346,8 +2501,8 @@
       <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>109</v>
+      <c r="C10" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>57</v>
@@ -2356,8 +2511,8 @@
         <v>58</v>
       </c>
       <c r="F10" s="4"/>
-      <c r="G10" s="10" t="s">
-        <v>124</v>
+      <c r="G10" s="9" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="75">
@@ -2367,8 +2522,8 @@
       <c r="B11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="23" t="s">
-        <v>119</v>
+      <c r="C11" s="31" t="s">
+        <v>126</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>59</v>
@@ -2377,7 +2532,7 @@
         <v>60</v>
       </c>
       <c r="F11" s="4"/>
-      <c r="G11" s="8"/>
+      <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:7" ht="169.5" customHeight="1">
       <c r="A12" s="6">
@@ -2386,8 +2541,8 @@
       <c r="B12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="23" t="s">
-        <v>118</v>
+      <c r="C12" s="8" t="s">
+        <v>125</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>61</v>
@@ -2396,7 +2551,7 @@
         <v>62</v>
       </c>
       <c r="F12" s="4"/>
-      <c r="G12" s="8"/>
+      <c r="G12" s="7"/>
     </row>
     <row r="13" spans="1:7" ht="93.75" customHeight="1">
       <c r="A13" s="6">
@@ -2405,7 +2560,7 @@
       <c r="B13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="31" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="1"/>
@@ -2413,7 +2568,7 @@
         <v>63</v>
       </c>
       <c r="F13" s="4"/>
-      <c r="G13" s="8"/>
+      <c r="G13" s="12"/>
     </row>
     <row r="14" spans="1:7" ht="60">
       <c r="A14" s="6">
@@ -2423,7 +2578,7 @@
         <v>16</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>64</v>
@@ -2432,7 +2587,9 @@
         <v>67</v>
       </c>
       <c r="F14" s="4"/>
-      <c r="G14" s="8"/>
+      <c r="G14" s="32" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="180">
       <c r="A15" s="6">
@@ -2451,7 +2608,7 @@
         <v>66</v>
       </c>
       <c r="F15" s="4"/>
-      <c r="G15" s="8"/>
+      <c r="G15" s="7"/>
     </row>
     <row r="16" spans="1:7" ht="105">
       <c r="A16" s="6">
@@ -2460,8 +2617,8 @@
       <c r="B16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>112</v>
+      <c r="C16" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>68</v>
@@ -2470,7 +2627,7 @@
         <v>54</v>
       </c>
       <c r="F16" s="4"/>
-      <c r="G16" s="8"/>
+      <c r="G16" s="7"/>
     </row>
     <row r="17" spans="1:7" ht="225">
       <c r="A17" s="6">
@@ -2479,8 +2636,8 @@
       <c r="B17" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>120</v>
+      <c r="C17" s="8" t="s">
+        <v>127</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>69</v>
@@ -2489,8 +2646,8 @@
         <v>70</v>
       </c>
       <c r="F17" s="4"/>
-      <c r="G17" s="24" t="s">
-        <v>125</v>
+      <c r="G17" s="29" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="60">
@@ -2500,7 +2657,7 @@
       <c r="B18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="8" t="s">
         <v>31</v>
       </c>
       <c r="D18" s="1"/>
@@ -2508,9 +2665,9 @@
         <v>71</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="G18" s="8"/>
+        <v>111</v>
+      </c>
+      <c r="G18" s="33"/>
     </row>
     <row r="19" spans="1:7" ht="114" customHeight="1">
       <c r="A19" s="6">
@@ -2529,7 +2686,7 @@
         <v>73</v>
       </c>
       <c r="F19" s="4"/>
-      <c r="G19" s="8"/>
+      <c r="G19" s="7"/>
     </row>
     <row r="20" spans="1:7" ht="180">
       <c r="A20" s="6">
@@ -2539,7 +2696,7 @@
         <v>25</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>75</v>
@@ -2548,8 +2705,8 @@
         <v>76</v>
       </c>
       <c r="F20" s="4"/>
-      <c r="G20" s="10" t="s">
-        <v>126</v>
+      <c r="G20" s="9" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="135">
@@ -2559,8 +2716,8 @@
       <c r="B21" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="9" t="s">
-        <v>115</v>
+      <c r="C21" s="8" t="s">
+        <v>113</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>77</v>
@@ -2569,8 +2726,8 @@
         <v>78</v>
       </c>
       <c r="F21" s="1"/>
-      <c r="G21" s="10" t="s">
-        <v>127</v>
+      <c r="G21" s="9" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="120">
@@ -2581,7 +2738,7 @@
         <v>28</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>79</v>
@@ -2590,8 +2747,8 @@
         <v>80</v>
       </c>
       <c r="F22" s="4"/>
-      <c r="G22" s="10" t="s">
-        <v>128</v>
+      <c r="G22" s="12" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="105">
@@ -2609,7 +2766,7 @@
       <c r="F23" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="G23" s="8"/>
+      <c r="G23" s="7"/>
     </row>
     <row r="24" spans="1:7" ht="135">
       <c r="A24" s="6">
@@ -2618,7 +2775,7 @@
       <c r="B24" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="31" t="s">
         <v>34</v>
       </c>
       <c r="D24" s="4" t="s">
@@ -2628,8 +2785,8 @@
         <v>82</v>
       </c>
       <c r="F24" s="4"/>
-      <c r="G24" s="27" t="s">
-        <v>129</v>
+      <c r="G24" s="10" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="194.25" customHeight="1">
@@ -2640,7 +2797,7 @@
         <v>102</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>83</v>
@@ -2651,8 +2808,8 @@
       <c r="F25" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G25" s="10" t="s">
-        <v>133</v>
+      <c r="G25" s="30" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="120">
@@ -2660,10 +2817,10 @@
         <v>22</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>84</v>
@@ -2672,8 +2829,8 @@
         <v>85</v>
       </c>
       <c r="F26" s="4"/>
-      <c r="G26" s="28" t="s">
-        <v>130</v>
+      <c r="G26" s="11" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="66" customHeight="1">
@@ -2693,7 +2850,7 @@
         <v>87</v>
       </c>
       <c r="F27" s="4"/>
-      <c r="G27" s="8"/>
+      <c r="G27" s="7"/>
     </row>
     <row r="28" spans="1:7" ht="120">
       <c r="A28" s="6">
@@ -2710,7 +2867,7 @@
         <v>92</v>
       </c>
       <c r="F28" s="4"/>
-      <c r="G28" s="8"/>
+      <c r="G28" s="7"/>
     </row>
     <row r="29" spans="1:7" ht="105">
       <c r="A29" s="6">
@@ -2719,7 +2876,7 @@
       <c r="B29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D29" s="1"/>
@@ -2727,7 +2884,9 @@
         <v>88</v>
       </c>
       <c r="F29" s="4"/>
-      <c r="G29" s="8"/>
+      <c r="G29" s="34" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="30" spans="1:7" ht="135">
       <c r="A30" s="6">
@@ -2744,7 +2903,9 @@
         <v>89</v>
       </c>
       <c r="F30" s="4"/>
-      <c r="G30" s="8"/>
+      <c r="G30" s="11" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="31" spans="1:7" ht="120">
       <c r="A31" s="6">
@@ -2761,10 +2922,11 @@
         <v>90</v>
       </c>
       <c r="F31" s="4"/>
-      <c r="G31" s="8"/>
+      <c r="G31" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A1:G1"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="B5:B7"/>
@@ -2781,7 +2943,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2797,10 +2959,10 @@
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="12"/>
+      <c r="D1" s="15"/>
     </row>
     <row r="2" spans="1:4" ht="60">
       <c r="A2" s="6">
@@ -3214,7 +3376,7 @@
   <sheetData>
     <row r="8" spans="6:6">
       <c r="F8" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -3225,4 +3387,23 @@
     <oleObject progId="AcroExch.Document.7" dvAspect="DVASPECT_ICON" shapeId="2050" r:id="rId3"/>
   </oleObjects>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <oleObjects>
+    <oleObject progId="Word.Document.12" dvAspect="DVASPECT_ICON" shapeId="4097" r:id="rId3"/>
+  </oleObjects>
+</worksheet>
 </file>
--- a/Iteration Plan.xlsx
+++ b/Iteration Plan.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="137">
   <si>
     <t xml:space="preserve">User Story </t>
   </si>
@@ -61,14 +61,6 @@
   </si>
   <si>
     <t>Technicians can be assigned Wos</t>
-  </si>
-  <si>
-    <t>-Connect WO queue to the message box and 'new request'list
--Add functionality to each list item to prompt to 'Proceed' window.
--Code to add functionality to 'accept' button and link it to the 'active Technician WOs' table
--DB connection to status table and RMA request to record above
-- Code to track dates for ' Assigned' Status
--Code to send out email notifications</t>
   </si>
   <si>
     <t>Technicians can delegate requests</t>
@@ -671,65 +663,6 @@
   </si>
   <si>
     <r>
-      <t>-Code to add functionality to ' delegate' button</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(both on Prceed Window &amp; update screen) and further link it to 'update message' prompt window
--</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Create DB for various information sections like resolution,description etc</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-DB connection to the Status update section with the prompt window.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
--Add functionality to automatically record the dates when user enters information in status update section.
--Code to send notification to Supervisor, asking for approval/putting the request on 'hold'</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF00B0F0"/>
@@ -910,54 +843,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>-DB connection</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>-Business logic to categorize WO on the basis of number of pieces.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-Code to assign categories to each request, if quantity provided.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- Link the radio buttons to the 'Category' table
--Enable radio buttons to choose the desired category and link it to the request.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-Add functionality to 'Update' button to reflect the changes in the DB.</t>
     </r>
   </si>
   <si>
@@ -1464,36 +1349,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">-Worked on Delegate button(only on Update Panel) 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Refer designed Wireframe to work with Proceed Window and Delegate Button. 
--To reach to Proceed window, automated request assignment is needed --&gt; how ?
- </t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>Done!</t>
     </r>
     <r>
@@ -1669,6 +1524,194 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> Completed/Near completion </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">-Connect WO queue to the message box and 'new request'list
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-Add functionality to each list item to prompt to 'Proceed' window.
+-Code to add functionality to 'accept' button and link it to the 'active Technician WOs' table
+-DB connection to status table and RMA request to record above</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- Code to track dates for ' Assigned' Status
+-Code to send out email notifications</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-Code to add functionality to ' delegate' button(both on Prceed Window &amp; update screen) and further link it to 'update message' prompt window</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Create DB for various information sections like resolution,description etc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-DB connection to the Status update section with the prompt window.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+-Add functionality to automatically record the dates when user enters information in status update section.
+-Code to send notification to Supervisor, asking for approval/putting the request on 'hold'</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">-To reach to Proceed window, automated request assignment is needed --&gt; how ?
+ </t>
+  </si>
+  <si>
+    <r>
+      <t>-Business logic to categorize WO on the basis of number of pieces.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-Code to assign categories to each request, if quantity provided.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Link the radio buttons to the 'Category' table
+-Enable radio buttons to choose the desired category and link it to the request.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-Add functionality to 'Update' button to reflect the changes in the DB.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">After the request is acceptd by theTech, what would be the chnge in status ?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Suggestion:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Until the request is accepted by the tech, the status remains 'waiting  to be assigned'.Once accpeted it is changed to 'assigned' and added in Tech WO queue</t>
     </r>
   </si>
 </sst>
@@ -1676,7 +1719,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1777,6 +1820,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1904,7 +1955,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1942,6 +1993,33 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1983,30 +2061,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2313,7 +2367,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2328,15 +2382,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="108.75" customHeight="1">
-      <c r="A1" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
+      <c r="A1" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
     </row>
     <row r="2" spans="1:7" ht="15.75">
       <c r="A2" s="5"/>
@@ -2346,15 +2400,15 @@
       <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="15"/>
+      <c r="D2" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="24"/>
       <c r="F2" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>98</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="109.5" customHeight="1">
@@ -2365,19 +2419,19 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>40</v>
-      </c>
       <c r="F3" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="G3" s="28" t="s">
-        <v>100</v>
+        <v>96</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="150">
@@ -2385,74 +2439,74 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="1"/>
+      <c r="G4" s="15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="65.25" customHeight="1">
+      <c r="A5" s="25">
+        <v>3</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="29" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="65.25" customHeight="1">
-      <c r="A5" s="16">
-        <v>3</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="G5" s="34" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="67.5" customHeight="1">
+      <c r="A6" s="26"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="25" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="67.5" customHeight="1">
-      <c r="A6" s="17"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="4" t="s">
+      <c r="G6" s="35"/>
+    </row>
+    <row r="7" spans="1:7" ht="46.5" customHeight="1">
+      <c r="A7" s="27"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="26"/>
-    </row>
-    <row r="7" spans="1:7" ht="46.5" customHeight="1">
-      <c r="A7" s="18"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" s="27"/>
+      <c r="G7" s="36"/>
     </row>
     <row r="8" spans="1:7" ht="90">
       <c r="A8" s="6">
@@ -2462,17 +2516,17 @@
         <v>9</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>54</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="13" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="150">
@@ -2483,36 +2537,38 @@
         <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="D9" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="7"/>
+      <c r="F9" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="G9" s="14"/>
     </row>
     <row r="10" spans="1:7" ht="165">
       <c r="A10" s="6">
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="D10" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>58</v>
-      </c>
       <c r="F10" s="4"/>
-      <c r="G10" s="9" t="s">
-        <v>131</v>
+      <c r="G10" s="12" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="75">
@@ -2520,16 +2576,16 @@
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>126</v>
+        <v>17</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>123</v>
       </c>
       <c r="D11" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="7"/>
@@ -2539,16 +2595,16 @@
         <v>8</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D12" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="7"/>
@@ -2558,14 +2614,14 @@
         <v>9</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="17" t="s">
         <v>14</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>15</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="12"/>
@@ -2575,20 +2631,20 @@
         <v>10</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F14" s="4"/>
-      <c r="G14" s="32" t="s">
-        <v>132</v>
+      <c r="G14" s="18" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="180">
@@ -2596,16 +2652,16 @@
         <v>11</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D15" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="7"/>
@@ -2615,16 +2671,16 @@
         <v>12</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="7"/>
@@ -2634,20 +2690,20 @@
         <v>13</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D17" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>70</v>
-      </c>
       <c r="F17" s="4"/>
-      <c r="G17" s="29" t="s">
-        <v>128</v>
+      <c r="G17" s="15" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="60">
@@ -2655,35 +2711,35 @@
         <v>14</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>31</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="G18" s="33"/>
+        <v>109</v>
+      </c>
+      <c r="G18" s="19"/>
     </row>
     <row r="19" spans="1:7" ht="114" customHeight="1">
       <c r="A19" s="6">
         <v>15</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="7"/>
@@ -2693,20 +2749,20 @@
         <v>16</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D20" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="9" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="135">
@@ -2714,20 +2770,20 @@
         <v>17</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="D21" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>78</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="9" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="120">
@@ -2735,20 +2791,20 @@
         <v>18</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D22" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="12" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="105">
@@ -2756,15 +2812,15 @@
         <v>19</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="1"/>
       <c r="E23" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G23" s="7"/>
     </row>
@@ -2773,20 +2829,20 @@
         <v>20</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="31" t="s">
-        <v>34</v>
-      </c>
       <c r="D24" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="194.25" customHeight="1">
@@ -2794,22 +2850,22 @@
         <v>21</v>
       </c>
       <c r="B25" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G25" s="30" t="s">
-        <v>124</v>
+      <c r="G25" s="16" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="120">
@@ -2817,20 +2873,20 @@
         <v>22</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D26" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="11" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="66" customHeight="1">
@@ -2838,16 +2894,16 @@
         <v>23</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="D27" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="7"/>
@@ -2864,7 +2920,7 @@
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="7"/>
@@ -2881,11 +2937,11 @@
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F29" s="4"/>
-      <c r="G29" s="34" t="s">
-        <v>134</v>
+      <c r="G29" s="20" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="135">
@@ -2896,15 +2952,15 @@
         <v>5</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="11" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="120">
@@ -2912,14 +2968,14 @@
         <v>27</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="7"/>
@@ -2959,10 +3015,10 @@
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="15"/>
+      <c r="C1" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:4" ht="60">
       <c r="A2" s="6">
@@ -2972,10 +3028,10 @@
         <v>2</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="45">
@@ -2983,13 +3039,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="90">
@@ -2997,13 +3053,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="75">
@@ -3011,13 +3067,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="60">
@@ -3025,13 +3081,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="45">
@@ -3042,10 +3098,10 @@
         <v>9</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="90">
@@ -3056,10 +3112,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="135">
@@ -3067,13 +3123,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="60">
@@ -3081,13 +3137,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="75">
@@ -3095,13 +3151,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="60">
@@ -3109,11 +3165,11 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="45">
@@ -3121,13 +3177,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="60">
@@ -3135,13 +3191,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="60">
@@ -3149,13 +3205,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="60">
@@ -3163,13 +3219,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="60">
@@ -3177,11 +3233,11 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="90">
@@ -3189,13 +3245,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="75">
@@ -3203,13 +3259,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="90">
@@ -3217,13 +3273,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="90">
@@ -3231,13 +3287,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="105">
@@ -3245,11 +3301,11 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="60">
@@ -3257,13 +3313,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C23" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="60">
@@ -3271,13 +3327,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="75">
@@ -3285,13 +3341,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C25" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="75">
@@ -3299,13 +3355,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C26" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="60">
@@ -3317,7 +3373,7 @@
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="105">
@@ -3329,7 +3385,7 @@
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="45">
@@ -3341,7 +3397,7 @@
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="75">
@@ -3349,11 +3405,11 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -3376,7 +3432,7 @@
   <sheetData>
     <row r="8" spans="6:6">
       <c r="F8" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/Iteration Plan.xlsx
+++ b/Iteration Plan.xlsx
@@ -72,12 +72,6 @@
     <t>Technician can update status to 'completed'</t>
   </si>
   <si>
-    <t>-Code to prompt a window to confirm if the product was fixed or not
--DB connection to the Status update section with the prompt window.
--Code to send out completion notifications
--DB connection to status table and RMA request for above</t>
-  </si>
-  <si>
     <t>Technicians can open requests to edit/update it</t>
   </si>
   <si>
@@ -160,14 +154,6 @@
     <t>All users can manually update the information in Resolution, description, comments, status updates sections.</t>
   </si>
   <si>
-    <t xml:space="preserve">-Design layout for the Notes section
--DB connection of the closed RMA request to 'view history' button
--Code to activate the View button , only when deatils are requested for a closed RMA request.
--Code to link the 'view history' button to produce history (from Notes section) for the requested RMA# request
--Add ' Edit' button, to enable changes in Notes section
-</t>
-  </si>
-  <si>
     <t>Note:
 There are four type of users: Supervisor, Receiving staff, Technician, Help Desk Staff</t>
   </si>
@@ -766,9 +752,6 @@
     </r>
   </si>
   <si>
-    <t>How to come back to the Supervisor Page ?</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -876,16 +859,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve"> Worked around with generating the reports, further need to work with the formating and customised generation of the report based on ceratin parameters(Date, client name, Status)</t>
-  </si>
-  <si>
     <t>Not sure how to implement Authorize button functionality</t>
   </si>
   <si>
     <t>RMA Software- Wireframe</t>
-  </si>
-  <si>
-    <t>-Enable/Disable View History Button, as soon as value is inputted in the text field.(Enable only if the record ‘s Status is closed, else disable)</t>
   </si>
   <si>
     <r>
@@ -1084,6 +1061,537 @@
     <t>Done!</t>
   </si>
   <si>
+    <t>-Design Layout for the Table showing Technician WO details
+-DB connection to view current assigned request
+- link RMA# in the WO table to autofill the availble fields in update section</t>
+  </si>
+  <si>
+    <r>
+      <t>-Code to all the inputs fields to accept values manually and  also fetch data(except RMA#) from the DB, wherever available.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-Link each drop-down list item(in 'update status' option) to the status table</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-Code to prompt a window to update the appropriate reason for status change.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-Code to link the 'open' button to the 'open' screen and back to the Supervisor screen
+-Code to add functionality to 'open' button to view the complete request information(on ' Open Page') and make the changes.(Similar to Tech Open Page)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF33CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Code to add functionality to ' Update' button to reflect the changes in the DB.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-DB connection</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'- Issue: 'Go Back' button(on Tech_open screen) doesnot not work for more than once!!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-Done!! Cover Open Screen in User story 11</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Done</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>With Dummy Data for RMA Table</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-Update button enabled successfully.
+-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Pending: Logic to record dates, in order to send out the email notifications to concerned person. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Done!</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Cover rest in User Story 11</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Need to work on the WO queue(How??)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">and duplicate the technician assignment functionality.
+</t>
+    </r>
+  </si>
+  <si>
+    <t>-Done!
+- Issue: 'Go Back' button on Search Screen</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RED:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Task removed
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BLUE:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Task completed                                                                                                                                                                                                                                                            
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>GREEN:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> New task introduced</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+PURPLE and BOLD: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Needs attention
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF33CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PINK:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Next Task that can be taken up(Tanmeet)
+Cell Highlighted in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Yellow:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Completed/Near completion </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">-Connect WO queue to the message box and 'new request'list
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-Add functionality to each list item to prompt to 'Proceed' window.
+-Code to add functionality to 'accept' button and link it to the 'active Technician WOs' table
+-DB connection to status table and RMA request to record above</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- Code to track dates for ' Assigned' Status
+-Code to send out email notifications</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">-To reach to Proceed window, automated request assignment is needed --&gt; how ?
+ </t>
+  </si>
+  <si>
+    <r>
+      <t>-Business logic to categorize WO on the basis of number of pieces.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-Code to assign categories to each request, if quantity provided.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Link the radio buttons to the 'Category' table
+-Enable radio buttons to choose the desired category and link it to the request.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-Add functionality to 'Update' button to reflect the changes in the DB.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">After the request is acceptd by theTech, what would be the chnge in status ?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Suggestion:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Until the request is accepted by the tech, the status remains 'waiting  to be assigned'.Once accpeted it is changed to 'assigned' and added in Tech WO queue</t>
+    </r>
+  </si>
+  <si>
     <r>
       <t>-Link each drop-down list item(in 'update status' section) to the status table
 -Code to add functionality to 'update' button to update the database</t>
@@ -1102,7 +1610,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF33CC"/>
+        <color rgb="FF00B0F0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -1125,182 +1633,171 @@
     </r>
   </si>
   <si>
-    <t>-Design Layout for the Table showing Technician WO details
--DB connection to view current assigned request
-- link RMA# in the WO table to autofill the availble fields in update section</t>
-  </si>
-  <si>
-    <r>
-      <t>-Code to all the inputs fields to accept values manually and  also fetch data(except RMA#) from the DB, wherever available.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-Link each drop-down list item(in 'update status' option) to the status table</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
+    <r>
+      <t>-Code to prompt a window to confirm if the product was fixed or not
+-DB connection to the Status update section with the prompt window.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF33CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-Code to send out completion notifications</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF33CC"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-DB connection to status table and RMA request for above</t>
+    </r>
+  </si>
+  <si>
+    <t>Work with the formating… reports generated!!</t>
+  </si>
+  <si>
+    <r>
+      <t>-Code to add functionality to ' delegate' button(both on Prceed Window &amp; update screen) and further link it to 'update message' prompt window</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Create DB for various information sections like resolution,description etc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-DB connection to the Status update section with the prompt window.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-Add functionality to automatically record the dates when user enters information in status update section.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+-Code to send notification to Supervisor, asking for approval/putting the request on 'hold'</t>
+    </r>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <r>
+      <t>All users can view history of any previous RMA request</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>-Code to prompt a window to update the appropriate reason for status change.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-Code to link the 'open' button to the 'open' screen and back to the Supervisor screen
--Code to add functionality to 'open' button to view the complete request information(on ' Open Page') and make the changes.(Similar to Tech Open Page)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF33CC"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Code to add functionality to ' Update' button to reflect the changes in the DB.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-DB connection</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'- Issue: 'Go Back' button(on Tech_open screen) doesnot not work for more than once!!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-Done!! Cover Open Screen in User story 11</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Done</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
+      <t>(closed RMA)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-Design layout for the Notes section
+-DB connection of the closed RMA request to 'view history' button
+-Code to activate the View button , only when deatils are requested for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -1309,409 +1806,76 @@
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>With Dummy Data for RMA Table</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>-Update button enabled successfully.
--</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Pending: Logic to record dates, in order to send out the email notifications to concerned person. </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Done!</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Cover rest in User Story 11</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">- </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Need to work on the WO queue(How??)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">and duplicate the technician assignment functionality.
-</t>
-    </r>
-  </si>
-  <si>
-    <t>-Done!
-- Issue: 'Go Back' button on Search Screen</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>any request</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>RED:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Task removed
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>BLUE:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Task completed                                                                                                                                                                                                                                                            
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>GREEN:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> New task introduced</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-PURPLE and BOLD: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Needs attention
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF33CC"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PINK:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Next Task that can be taken up(Tanmeet)
-Cell Highlighted in </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFFFF00"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Yellow:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Completed/Near completion </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">-Connect WO queue to the message box and 'new request'list
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-Add functionality to each list item to prompt to 'Proceed' window.
--Code to add functionality to 'accept' button and link it to the 'active Technician WOs' table
--DB connection to status table and RMA request to record above</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- Code to track dates for ' Assigned' Status
--Code to send out email notifications</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>-Code to add functionality to ' delegate' button(both on Prceed Window &amp; update screen) and further link it to 'update message' prompt window</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
--</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Create DB for various information sections like resolution,description etc</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-DB connection to the Status update section with the prompt window.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
--Add functionality to automatically record the dates when user enters information in status update section.
--Code to send notification to Supervisor, asking for approval/putting the request on 'hold'</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">-To reach to Proceed window, automated request assignment is needed --&gt; how ?
- </t>
-  </si>
-  <si>
-    <r>
-      <t>-Business logic to categorize WO on the basis of number of pieces.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-Code to assign categories to each request, if quantity provided.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Link the radio buttons to the 'Category' table
--Enable radio buttons to choose the desired category and link it to the request.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-Add functionality to 'Update' button to reflect the changes in the DB.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">After the request is acceptd by theTech, what would be the chnge in status ?
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
+      <t xml:space="preserve"> (a closed RMA request).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-Code to link the 'view history' button to produce history (from Notes section) for the requested RMA# request</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Suggestion:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Until the request is accepted by the tech, the status remains 'waiting  to be assigned'.Once accpeted it is changed to 'assigned' and added in Tech WO queue</t>
+      <t>-Add ' Edit' button, to enable changes in Notes section</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
     </r>
   </si>
 </sst>
@@ -1955,7 +2119,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2009,9 +2173,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2062,6 +2223,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2367,7 +2534,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2382,15 +2549,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="108.75" customHeight="1">
-      <c r="A1" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
+      <c r="A1" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
     </row>
     <row r="2" spans="1:7" ht="15.75">
       <c r="A2" s="5"/>
@@ -2400,15 +2567,15 @@
       <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="24"/>
+      <c r="D2" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="23"/>
       <c r="F2" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="109.5" customHeight="1">
@@ -2419,19 +2586,19 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="150">
@@ -2439,74 +2606,74 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="15" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="65.25" customHeight="1">
-      <c r="A5" s="25">
+      <c r="A5" s="24">
         <v>3</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="31" t="s">
-        <v>104</v>
+      <c r="C5" s="30" t="s">
+        <v>102</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="67.5" customHeight="1">
+      <c r="A6" s="25"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="34"/>
+    </row>
+    <row r="7" spans="1:7" ht="46.5" customHeight="1">
+      <c r="A7" s="26"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="34" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="67.5" customHeight="1">
-      <c r="A6" s="26"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="35"/>
-    </row>
-    <row r="7" spans="1:7" ht="46.5" customHeight="1">
-      <c r="A7" s="27"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" s="36"/>
+      <c r="G7" s="35"/>
     </row>
     <row r="8" spans="1:7" ht="90">
       <c r="A8" s="6">
@@ -2516,17 +2683,17 @@
         <v>9</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="13" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="150">
@@ -2537,16 +2704,16 @@
         <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>136</v>
+        <v>53</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>129</v>
       </c>
       <c r="G9" s="14"/>
     </row>
@@ -2561,14 +2728,14 @@
         <v>133</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="12" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="75">
@@ -2576,16 +2743,16 @@
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="7"/>
@@ -2598,13 +2765,13 @@
         <v>12</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="7"/>
@@ -2616,12 +2783,12 @@
       <c r="B13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="17" t="s">
-        <v>14</v>
+      <c r="C13" s="8" t="s">
+        <v>131</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="12"/>
@@ -2631,20 +2798,20 @@
         <v>10</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="18" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="180">
@@ -2652,16 +2819,16 @@
         <v>11</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="7"/>
@@ -2671,16 +2838,16 @@
         <v>12</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="7"/>
@@ -2690,20 +2857,20 @@
         <v>13</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="15" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="60">
@@ -2711,35 +2878,35 @@
         <v>14</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>29</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>30</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="G18" s="19"/>
+        <v>68</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="18" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="19" spans="1:7" ht="114" customHeight="1">
       <c r="A19" s="6">
         <v>15</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="7"/>
@@ -2749,20 +2916,20 @@
         <v>16</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="9" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="135">
@@ -2770,20 +2937,20 @@
         <v>17</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F21" s="1"/>
-      <c r="G21" s="9" t="s">
-        <v>118</v>
+      <c r="G21" s="36" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="120">
@@ -2791,20 +2958,20 @@
         <v>18</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="12" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="105">
@@ -2812,15 +2979,15 @@
         <v>19</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="1"/>
       <c r="E23" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G23" s="7"/>
     </row>
@@ -2829,20 +2996,20 @@
         <v>20</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="17" t="s">
-        <v>33</v>
-      </c>
       <c r="D24" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="10" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="194.25" customHeight="1">
@@ -2850,22 +3017,22 @@
         <v>21</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="120">
@@ -2873,20 +3040,20 @@
         <v>22</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="66" customHeight="1">
@@ -2894,16 +3061,16 @@
         <v>23</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="D27" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F27" s="4"/>
       <c r="G27" s="7"/>
@@ -2920,7 +3087,7 @@
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="7"/>
@@ -2937,11 +3104,11 @@
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F29" s="4"/>
-      <c r="G29" s="20" t="s">
-        <v>130</v>
+      <c r="G29" s="19" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="135">
@@ -2949,18 +3116,18 @@
         <v>26</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>5</v>
+        <v>135</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>37</v>
+        <v>136</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F30" s="4"/>
-      <c r="G30" s="11" t="s">
-        <v>115</v>
+      <c r="G30" s="37" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="120">
@@ -2968,14 +3135,14 @@
         <v>27</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="7"/>
@@ -3015,10 +3182,10 @@
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="24"/>
+      <c r="C1" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="23"/>
     </row>
     <row r="2" spans="1:4" ht="60">
       <c r="A2" s="6">
@@ -3028,10 +3195,10 @@
         <v>2</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="45">
@@ -3039,13 +3206,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="90">
@@ -3053,13 +3220,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="75">
@@ -3067,13 +3234,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="60">
@@ -3081,13 +3248,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="45">
@@ -3098,10 +3265,10 @@
         <v>9</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="90">
@@ -3112,10 +3279,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="135">
@@ -3126,10 +3293,10 @@
         <v>11</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="60">
@@ -3137,13 +3304,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="75">
@@ -3154,10 +3321,10 @@
         <v>12</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="60">
@@ -3169,7 +3336,7 @@
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="45">
@@ -3177,13 +3344,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="60">
@@ -3191,13 +3358,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="60">
@@ -3205,13 +3372,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="60">
@@ -3219,13 +3386,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="60">
@@ -3233,11 +3400,11 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="90">
@@ -3245,13 +3412,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="75">
@@ -3259,13 +3426,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="90">
@@ -3273,13 +3440,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="90">
@@ -3287,13 +3454,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="105">
@@ -3301,11 +3468,11 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="60">
@@ -3313,13 +3480,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="60">
@@ -3327,13 +3494,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="75">
@@ -3341,13 +3508,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="75">
@@ -3355,13 +3522,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="60">
@@ -3373,7 +3540,7 @@
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="105">
@@ -3385,7 +3552,7 @@
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="45">
@@ -3397,7 +3564,7 @@
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="75">
@@ -3405,11 +3572,11 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -3432,7 +3599,7 @@
   <sheetData>
     <row r="8" spans="6:6">
       <c r="F8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/Iteration Plan.xlsx
+++ b/Iteration Plan.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="138">
   <si>
     <t xml:space="preserve">User Story </t>
   </si>
@@ -1877,6 +1877,11 @@
       <t xml:space="preserve">
 </t>
     </r>
+  </si>
+  <si>
+    <t>-Done
+-CHECK PARAMETER SIZES against column sizes to allow more space for the data entered.
+-What would be the appropriate datatype ?</t>
   </si>
 </sst>
 </file>
@@ -2119,7 +2124,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2179,6 +2184,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2223,12 +2231,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2533,8 +2535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2549,15 +2551,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="108.75" customHeight="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
     </row>
     <row r="2" spans="1:7" ht="15.75">
       <c r="A2" s="5"/>
@@ -2567,10 +2569,10 @@
       <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="23"/>
+      <c r="E2" s="24"/>
       <c r="F2" s="5" t="s">
         <v>95</v>
       </c>
@@ -2623,13 +2625,13 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="65.25" customHeight="1">
-      <c r="A5" s="24">
+      <c r="A5" s="25">
         <v>3</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="31" t="s">
         <v>102</v>
       </c>
       <c r="D5" s="4" t="s">
@@ -2641,14 +2643,14 @@
       <c r="F5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="G5" s="34" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="67.5" customHeight="1">
-      <c r="A6" s="25"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="31"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="32"/>
       <c r="D6" s="4" t="s">
         <v>44</v>
       </c>
@@ -2658,12 +2660,12 @@
       <c r="F6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="34"/>
+      <c r="G6" s="35"/>
     </row>
     <row r="7" spans="1:7" ht="46.5" customHeight="1">
-      <c r="A7" s="26"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="32"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="33"/>
       <c r="D7" s="4" t="s">
         <v>45</v>
       </c>
@@ -2673,7 +2675,7 @@
       <c r="F7" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="35"/>
+      <c r="G7" s="36"/>
     </row>
     <row r="8" spans="1:7" ht="90">
       <c r="A8" s="6">
@@ -2949,7 +2951,7 @@
         <v>75</v>
       </c>
       <c r="F21" s="1"/>
-      <c r="G21" s="36" t="s">
+      <c r="G21" s="21" t="s">
         <v>113</v>
       </c>
     </row>
@@ -3126,8 +3128,8 @@
         <v>86</v>
       </c>
       <c r="F30" s="4"/>
-      <c r="G30" s="37" t="s">
-        <v>134</v>
+      <c r="G30" s="19" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="120">
@@ -3182,10 +3184,10 @@
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="23"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:4" ht="60">
       <c r="A2" s="6">
